--- a/xlsx/Squid (软件)_intext.xlsx
+++ b/xlsx/Squid (软件)_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E7%89%88%E6%9C%AC%E9%80%B1%E6%9C%9F</t>
   </si>
   <si>
-    <t>軟件版本週期</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_Squid (软件)</t>
+    <t>软件版本周期</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_Squid (软件)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>網站</t>
+    <t>网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LAMP</t>
